--- a/Excel/镇魂街/national_card国战卡牌属性.xlsx
+++ b/Excel/镇魂街/national_card国战卡牌属性.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
     <sheet name="卡牌国战属性" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>sheet名</t>
   </si>
@@ -245,184 +244,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍配置的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新机制调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狄奕更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征募完整功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狄奕更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇内队伍详情界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括对应的界面内的数据、状态、刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍详情弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括对应的界面内的数据、状态、刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择队伍界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军团解锁、转换、重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剿匪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍状态(行军、返回、战斗中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调动、出征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余细节项的查漏补缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源区、讨伐区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军力值刷新-下阵折损刷新(城镇内队伍详情、卡牌国战属性页签、队伍详情弹窗、选择队伍弹窗)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联队伍配置，资源和卡牌兵力刷新</t>
-  </si>
-  <si>
-    <t>军力值刷新-征募刷新(城镇内队伍详情、卡牌国战属性页签、队伍详情弹窗、选择队伍弹窗)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联征募，资源和卡牌兵力刷新</t>
-  </si>
-  <si>
-    <t>军力值刷新-战斗后刷新(城镇内队伍详情、卡牌国战属性页签、队伍详情弹窗、选择队伍弹窗)</t>
-  </si>
-  <si>
-    <t>关联战斗</t>
-  </si>
-  <si>
-    <t>行动力消耗</t>
-  </si>
-  <si>
-    <t>目前调动可以做消耗，关联各个功能模块</t>
-  </si>
-  <si>
-    <t>行动力刷新-卡牌国战属性页签</t>
-  </si>
-  <si>
-    <t>行动力刷新-城镇内队伍详情界面</t>
-  </si>
-  <si>
-    <t>行动力刷新-队伍详情弹窗</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>征募状态刷新-队伍详情弹窗</t>
-  </si>
-  <si>
-    <t>征募状态刷新-选择队伍弹窗</t>
-  </si>
-  <si>
-    <t>征募状态刷新-城镇内队伍详情卡面</t>
-  </si>
-  <si>
-    <t>征募状态刷新-左侧队伍简栏及右侧队伍栏</t>
-  </si>
-  <si>
-    <t>重伤-队伍详情弹窗</t>
-  </si>
-  <si>
-    <t>重伤-选择队伍弹窗</t>
-  </si>
-  <si>
-    <t>重伤-城镇内队伍详情卡面</t>
-  </si>
-  <si>
-    <t>重伤-左侧队伍简栏及右侧队伍栏</t>
-  </si>
-  <si>
     <t>战斗曹焱兵</t>
   </si>
   <si>
     <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>黑尔坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
   </si>
   <si>
     <t>诸葛一心</t>
@@ -528,7 +435,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -580,31 +487,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Grid" xfId="2"/>
@@ -612,22 +494,7 @@
     <cellStyle name="英文标题" xfId="1"/>
     <cellStyle name="中文标题" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1142,10 +1009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,21 +1199,21 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>1101007</v>
+        <v>1101001</v>
       </c>
       <c r="B4" s="6">
-        <v>1101007</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1101001</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="18">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
         <v>0</v>
       </c>
       <c r="G4" s="3">
@@ -1379,21 +1246,21 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>1101010</v>
+        <v>1101002</v>
       </c>
       <c r="B5" s="6">
-        <v>1101010</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
+        <v>1101002</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1426,21 +1293,21 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>1101011</v>
+        <v>1101003</v>
       </c>
       <c r="B6" s="6">
-        <v>1101011</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
+        <v>1101003</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -1473,21 +1340,21 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>1101015</v>
+        <v>1101004</v>
       </c>
       <c r="B7" s="6">
-        <v>1101015</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="6">
+        <v>1101004</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="18">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18">
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -1520,21 +1387,21 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>1101017</v>
+        <v>1101005</v>
       </c>
       <c r="B8" s="6">
-        <v>1101017</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="6">
+        <v>1101005</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="18">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -1567,21 +1434,21 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>1101020</v>
+        <v>1101006</v>
       </c>
       <c r="B9" s="6">
-        <v>1101020</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="6">
+        <v>1101006</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
         <v>0</v>
       </c>
       <c r="G9" s="3">
@@ -1614,22 +1481,22 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>1102001</v>
+        <v>1101007</v>
       </c>
       <c r="B10" s="6">
-        <v>1102001</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
+        <v>1101007</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
+      <c r="F10" s="18">
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>43</v>
@@ -1661,22 +1528,22 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>1102003</v>
+        <v>1101008</v>
       </c>
       <c r="B11" s="6">
-        <v>1102003</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
+        <v>1101008</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>33</v>
@@ -1708,22 +1575,22 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>1102009</v>
+        <v>1101009</v>
       </c>
       <c r="B12" s="6">
-        <v>1102009</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
+        <v>1101009</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>70</v>
@@ -1755,22 +1622,22 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>1102011</v>
+        <v>1101010</v>
       </c>
       <c r="B13" s="6">
-        <v>1102011</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
+        <v>1101010</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
-        <v>2</v>
+      <c r="F13" s="18">
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>97</v>
@@ -1802,22 +1669,22 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>1102013</v>
+        <v>1101011</v>
       </c>
       <c r="B14" s="6">
-        <v>1102013</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
+        <v>1101011</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
         <v>3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>83</v>
@@ -1849,22 +1716,22 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>1102014</v>
+        <v>1101012</v>
       </c>
       <c r="B15" s="6">
-        <v>1102014</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6">
+        <v>1101012</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="18">
         <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>19</v>
@@ -1896,707 +1763,1347 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
+        <v>1101013</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1101013</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3">
+        <v>188</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2120</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1101014</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1101014</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>3</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3">
+        <v>109</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1101015</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1101015</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3">
+        <v>295</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2969</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1101017</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1101017</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3">
+        <v>283</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2085</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1101020</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1101020</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3">
+        <v>299</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1813</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1101022</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1101022</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>26</v>
+      </c>
+      <c r="H21" s="3">
+        <v>282</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1277</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1102001</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1102001</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43</v>
+      </c>
+      <c r="H22" s="3">
+        <v>218</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1567</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>1102002</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1102002</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
+      <c r="E23" s="18">
+        <v>3</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>33</v>
+      </c>
+      <c r="H23" s="3">
+        <v>198</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2920</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1102003</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1102003</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>70</v>
+      </c>
+      <c r="H24" s="3">
+        <v>268</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2867</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>1102004</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1102004</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>97</v>
+      </c>
+      <c r="H25" s="3">
+        <v>261</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2125</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1102005</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1102005</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>83</v>
+      </c>
+      <c r="H26" s="3">
+        <v>132</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1143</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>1102006</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1102006</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>143</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2578</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1102007</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1102007</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>4</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>55</v>
+      </c>
+      <c r="H28" s="3">
+        <v>188</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2120</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1102008</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1102008</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>3</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3">
+        <v>109</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>1102009</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1102009</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>4</v>
+      </c>
+      <c r="F30" s="18">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3">
+        <v>295</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2969</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1102010</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1102010</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>4</v>
+      </c>
+      <c r="F31" s="18">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3">
+        <v>283</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2085</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1102011</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1102011</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3">
+        <v>299</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1813</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>1102012</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1102012</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>4</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3">
+        <v>282</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1277</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1102013</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1102013</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>2</v>
+      </c>
+      <c r="F34" s="18">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43</v>
+      </c>
+      <c r="H34" s="3">
+        <v>218</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1567</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1102014</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1102014</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>3</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3">
+        <v>198</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2920</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1102015</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1102015</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>70</v>
+      </c>
+      <c r="H36" s="3">
+        <v>268</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2867</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>1102016</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1102016</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2</v>
+      </c>
+      <c r="E37" s="18">
+        <v>4</v>
+      </c>
+      <c r="F37" s="18">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>97</v>
+      </c>
+      <c r="H37" s="3">
+        <v>261</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2125</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>1102017</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1102017</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>3</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>83</v>
+      </c>
+      <c r="H38" s="3">
+        <v>132</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1143</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>1102018</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1102018</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="18">
+        <v>3</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
+        <v>143</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2578</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1102019</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1102019</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>3</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>55</v>
+      </c>
+      <c r="H40" s="3">
+        <v>188</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2120</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>1102020</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1102020</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>3</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3">
+        <v>109</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>1102021</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1102021</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>2</v>
+      </c>
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>76</v>
+      </c>
+      <c r="H42" s="3">
+        <v>295</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2969</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>1102022</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B43" s="6">
         <v>1102022</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2</v>
+      </c>
+      <c r="E43" s="18">
         <v>4</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F43" s="18">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
-        <v>79</v>
-      </c>
-      <c r="H16" s="3">
-        <v>244</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2220</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="3"/>
+      <c r="G43" s="3">
+        <v>14</v>
+      </c>
+      <c r="H43" s="3">
+        <v>283</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2085</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.25" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F28:F31">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/镇魂街/national_card国战卡牌属性.xlsx
+++ b/Excel/镇魂街/national_card国战卡牌属性.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>sheet名</t>
   </si>
@@ -283,10 +283,6 @@
     <t>吕仙宫</t>
   </si>
   <si>
-    <t>幻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>许褚</t>
   </si>
   <si>
@@ -302,9 +298,6 @@
     <t>天使缇娜</t>
   </si>
   <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
     <t>张郃</t>
   </si>
   <si>
@@ -330,18 +323,6 @@
   </si>
   <si>
     <t>烈风螳螂</t>
-  </si>
-  <si>
-    <t>诸葛一心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姬烟华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1009,10 +990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1904,34 +1885,34 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>1101017</v>
+        <v>1102001</v>
       </c>
       <c r="B19" s="6">
-        <v>1101017</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>90</v>
+        <v>1102001</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="18">
         <v>4</v>
       </c>
       <c r="F19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="I19" s="3">
-        <v>2085</v>
+        <v>1567</v>
       </c>
       <c r="J19" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>55</v>
@@ -1943,7 +1924,7 @@
         <v>56</v>
       </c>
       <c r="N19" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>57</v>
@@ -1951,34 +1932,34 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>1101020</v>
+        <v>1102002</v>
       </c>
       <c r="B20" s="6">
-        <v>1101020</v>
+        <v>1102002</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18">
         <v>1</v>
-      </c>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>33</v>
       </c>
       <c r="H20" s="3">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="I20" s="3">
-        <v>1813</v>
+        <v>2920</v>
       </c>
       <c r="J20" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>55</v>
@@ -1990,7 +1971,7 @@
         <v>56</v>
       </c>
       <c r="N20" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>57</v>
@@ -1998,34 +1979,34 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>1101022</v>
+        <v>1102003</v>
       </c>
       <c r="B21" s="6">
-        <v>1101022</v>
+        <v>1102003</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D21" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="H21" s="3">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I21" s="3">
-        <v>1277</v>
+        <v>2867</v>
       </c>
       <c r="J21" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>55</v>
@@ -2037,7 +2018,7 @@
         <v>56</v>
       </c>
       <c r="N21" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>57</v>
@@ -2045,34 +2026,34 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>1102001</v>
+        <v>1102004</v>
       </c>
       <c r="B22" s="6">
-        <v>1102001</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>17</v>
+        <v>1102004</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
       </c>
       <c r="E22" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="3">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="I22" s="3">
-        <v>1567</v>
+        <v>2125</v>
       </c>
       <c r="J22" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>55</v>
@@ -2084,7 +2065,7 @@
         <v>56</v>
       </c>
       <c r="N22" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>57</v>
@@ -2092,13 +2073,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>1102002</v>
+        <v>1102005</v>
       </c>
       <c r="B23" s="6">
-        <v>1102002</v>
+        <v>1102005</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -2107,19 +2088,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="I23" s="3">
-        <v>2920</v>
+        <v>1143</v>
       </c>
       <c r="J23" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>55</v>
@@ -2131,7 +2112,7 @@
         <v>56</v>
       </c>
       <c r="N23" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>57</v>
@@ -2139,34 +2120,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>1102003</v>
+        <v>1102006</v>
       </c>
       <c r="B24" s="6">
-        <v>1102003</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>18</v>
+        <v>1102006</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
       </c>
       <c r="E24" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="18">
         <v>2</v>
       </c>
       <c r="G24" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="I24" s="3">
-        <v>2867</v>
+        <v>2578</v>
       </c>
       <c r="J24" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>55</v>
@@ -2178,7 +2159,7 @@
         <v>56</v>
       </c>
       <c r="N24" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>57</v>
@@ -2186,34 +2167,34 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>1102004</v>
+        <v>1102007</v>
       </c>
       <c r="B25" s="6">
-        <v>1102004</v>
+        <v>1102007</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
       </c>
       <c r="E25" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H25" s="3">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="I25" s="3">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="J25" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>55</v>
@@ -2225,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="N25" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>57</v>
@@ -2233,31 +2214,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>1102005</v>
+        <v>1102009</v>
       </c>
       <c r="B26" s="6">
-        <v>1102005</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>77</v>
+        <v>1102009</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="18">
         <v>2</v>
       </c>
       <c r="E26" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H26" s="3">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="I26" s="3">
-        <v>1143</v>
+        <v>2969</v>
       </c>
       <c r="J26" s="3">
         <v>1304011</v>
@@ -2280,13 +2261,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>1102006</v>
+        <v>1102010</v>
       </c>
       <c r="B27" s="6">
-        <v>1102006</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>78</v>
+        <v>1102010</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="18">
         <v>2</v>
@@ -2295,16 +2276,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="I27" s="3">
-        <v>2578</v>
+        <v>2085</v>
       </c>
       <c r="J27" s="3">
         <v>1304013</v>
@@ -2327,13 +2308,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>1102007</v>
+        <v>1102011</v>
       </c>
       <c r="B28" s="6">
-        <v>1102007</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>79</v>
+        <v>1102011</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="18">
         <v>2</v>
@@ -2342,16 +2323,16 @@
         <v>4</v>
       </c>
       <c r="F28" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H28" s="3">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="I28" s="3">
-        <v>2120</v>
+        <v>1813</v>
       </c>
       <c r="J28" s="3">
         <v>1304011</v>
@@ -2374,31 +2355,31 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>1102008</v>
+        <v>1102012</v>
       </c>
       <c r="B29" s="6">
-        <v>1102008</v>
-      </c>
-      <c r="C29" s="18" t="s">
+        <v>1102012</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="18">
         <v>2</v>
       </c>
       <c r="E29" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H29" s="3">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="I29" s="3">
-        <v>1981</v>
+        <v>1277</v>
       </c>
       <c r="J29" s="3">
         <v>1304013</v>
@@ -2421,31 +2402,31 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>1102009</v>
+        <v>1102013</v>
       </c>
       <c r="B30" s="6">
-        <v>1102009</v>
+        <v>1102013</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" s="18">
         <v>2</v>
       </c>
       <c r="E30" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H30" s="3">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="I30" s="3">
-        <v>2969</v>
+        <v>1567</v>
       </c>
       <c r="J30" s="3">
         <v>1304011</v>
@@ -2468,31 +2449,31 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>1102010</v>
+        <v>1102014</v>
       </c>
       <c r="B31" s="6">
-        <v>1102010</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>81</v>
+        <v>1102014</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
       </c>
       <c r="E31" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H31" s="3">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="I31" s="3">
-        <v>2085</v>
+        <v>2920</v>
       </c>
       <c r="J31" s="3">
         <v>1304013</v>
@@ -2515,31 +2496,31 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>1102011</v>
+        <v>1102015</v>
       </c>
       <c r="B32" s="6">
-        <v>1102011</v>
+        <v>1102015</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D32" s="18">
         <v>2</v>
       </c>
       <c r="E32" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="I32" s="3">
-        <v>1813</v>
+        <v>2867</v>
       </c>
       <c r="J32" s="3">
         <v>1304011</v>
@@ -2562,12 +2543,12 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>1102012</v>
+        <v>1102016</v>
       </c>
       <c r="B33" s="6">
-        <v>1102012</v>
-      </c>
-      <c r="C33" s="17" t="s">
+        <v>1102016</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="18">
@@ -2577,16 +2558,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H33" s="3">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="I33" s="3">
-        <v>1277</v>
+        <v>2125</v>
       </c>
       <c r="J33" s="3">
         <v>1304013</v>
@@ -2609,31 +2590,31 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>1102013</v>
+        <v>1102017</v>
       </c>
       <c r="B34" s="6">
-        <v>1102013</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>21</v>
+        <v>1102017</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D34" s="18">
         <v>2</v>
       </c>
       <c r="E34" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="18">
         <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H34" s="3">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="I34" s="3">
-        <v>1567</v>
+        <v>1143</v>
       </c>
       <c r="J34" s="3">
         <v>1304011</v>
@@ -2656,13 +2637,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>1102014</v>
+        <v>1102018</v>
       </c>
       <c r="B35" s="6">
-        <v>1102014</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>22</v>
+        <v>1102018</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -2671,16 +2652,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H35" s="3">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I35" s="3">
-        <v>2920</v>
+        <v>2578</v>
       </c>
       <c r="J35" s="3">
         <v>1304013</v>
@@ -2703,31 +2684,31 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>1102015</v>
+        <v>1102019</v>
       </c>
       <c r="B36" s="6">
-        <v>1102015</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>83</v>
+        <v>1102019</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="18">
         <v>2</v>
       </c>
       <c r="E36" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="18">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H36" s="3">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="I36" s="3">
-        <v>2867</v>
+        <v>2120</v>
       </c>
       <c r="J36" s="3">
         <v>1304011</v>
@@ -2750,31 +2731,31 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>1102016</v>
+        <v>1102020</v>
       </c>
       <c r="B37" s="6">
-        <v>1102016</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>84</v>
+        <v>1102020</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
       </c>
       <c r="E37" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="18">
         <v>2</v>
       </c>
       <c r="G37" s="3">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="I37" s="3">
-        <v>2125</v>
+        <v>1981</v>
       </c>
       <c r="J37" s="3">
         <v>1304013</v>
@@ -2797,31 +2778,31 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>1102017</v>
+        <v>1102021</v>
       </c>
       <c r="B38" s="6">
-        <v>1102017</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>85</v>
+        <v>1102021</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="D38" s="18">
         <v>2</v>
       </c>
       <c r="E38" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" s="3">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="I38" s="3">
-        <v>1143</v>
+        <v>2969</v>
       </c>
       <c r="J38" s="3">
         <v>1304011</v>
@@ -2843,239 +2824,19 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>1102018</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1102018</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="18">
-        <v>2</v>
-      </c>
-      <c r="E39" s="18">
-        <v>3</v>
-      </c>
-      <c r="F39" s="18">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3">
-        <v>19</v>
-      </c>
-      <c r="H39" s="3">
-        <v>143</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2578</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>1102019</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1102019</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="18">
-        <v>2</v>
-      </c>
-      <c r="E40" s="18">
-        <v>3</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>55</v>
-      </c>
-      <c r="H40" s="3">
-        <v>188</v>
-      </c>
-      <c r="I40" s="3">
-        <v>2120</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>1102020</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1102020</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="18">
-        <v>2</v>
-      </c>
-      <c r="E41" s="18">
-        <v>3</v>
-      </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>40</v>
-      </c>
-      <c r="H41" s="3">
-        <v>109</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1981</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>1102021</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1102021</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="18">
-        <v>2</v>
-      </c>
-      <c r="E42" s="18">
-        <v>2</v>
-      </c>
-      <c r="F42" s="18">
-        <v>2</v>
-      </c>
-      <c r="G42" s="3">
-        <v>76</v>
-      </c>
-      <c r="H42" s="3">
-        <v>295</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2969</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>1102022</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1102022</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="18">
-        <v>2</v>
-      </c>
-      <c r="E43" s="18">
-        <v>4</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>14</v>
-      </c>
-      <c r="H43" s="3">
-        <v>283</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2085</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G44" s="3"/>
@@ -3085,21 +2846,6 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G51" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/镇魂街/national_card国战卡牌属性.xlsx
+++ b/Excel/镇魂街/national_card国战卡牌属性.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>sheet名</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+  </si>
+  <si>
+    <t>柠檬精</t>
   </si>
 </sst>
 </file>
@@ -990,10 +996,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1885,34 +1891,34 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>1102001</v>
+        <v>1101041</v>
       </c>
       <c r="B19" s="6">
-        <v>1102001</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>17</v>
+        <v>1101041</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="I19" s="3">
-        <v>1567</v>
+        <v>2120</v>
       </c>
       <c r="J19" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>55</v>
@@ -1924,7 +1930,7 @@
         <v>56</v>
       </c>
       <c r="N19" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>57</v>
@@ -1932,34 +1938,34 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>1102002</v>
+        <v>1102001</v>
       </c>
       <c r="B20" s="6">
-        <v>1102002</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>74</v>
+        <v>1102001</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="18">
         <v>2</v>
       </c>
       <c r="E20" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H20" s="3">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I20" s="3">
-        <v>2920</v>
+        <v>1567</v>
       </c>
       <c r="J20" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>55</v>
@@ -1971,7 +1977,7 @@
         <v>56</v>
       </c>
       <c r="N20" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>57</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>1102003</v>
+        <v>1102002</v>
       </c>
       <c r="B21" s="6">
-        <v>1102003</v>
+        <v>1102002</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D21" s="18">
         <v>2</v>
@@ -1994,19 +2000,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H21" s="3">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="I21" s="3">
-        <v>2867</v>
+        <v>2920</v>
       </c>
       <c r="J21" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>55</v>
@@ -2018,7 +2024,7 @@
         <v>56</v>
       </c>
       <c r="N21" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>57</v>
@@ -2026,34 +2032,34 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>1102004</v>
+        <v>1102003</v>
       </c>
       <c r="B22" s="6">
-        <v>1102004</v>
+        <v>1102003</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
       </c>
       <c r="E22" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="18">
         <v>2</v>
       </c>
       <c r="G22" s="3">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H22" s="3">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I22" s="3">
-        <v>2125</v>
+        <v>2867</v>
       </c>
       <c r="J22" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>55</v>
@@ -2065,7 +2071,7 @@
         <v>56</v>
       </c>
       <c r="N22" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>57</v>
@@ -2073,34 +2079,34 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>1102005</v>
+        <v>1102004</v>
       </c>
       <c r="B23" s="6">
-        <v>1102005</v>
+        <v>1102004</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
       </c>
       <c r="E23" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H23" s="3">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="I23" s="3">
-        <v>1143</v>
+        <v>2125</v>
       </c>
       <c r="J23" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>55</v>
@@ -2112,7 +2118,7 @@
         <v>56</v>
       </c>
       <c r="N23" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>57</v>
@@ -2120,34 +2126,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>1102006</v>
+        <v>1102005</v>
       </c>
       <c r="B24" s="6">
-        <v>1102006</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>77</v>
+        <v>1102005</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
       </c>
       <c r="E24" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I24" s="3">
-        <v>2578</v>
+        <v>1143</v>
       </c>
       <c r="J24" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>55</v>
@@ -2159,7 +2165,7 @@
         <v>56</v>
       </c>
       <c r="N24" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>57</v>
@@ -2167,13 +2173,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>1102007</v>
+        <v>1102006</v>
       </c>
       <c r="B25" s="6">
-        <v>1102007</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>78</v>
+        <v>1102006</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
@@ -2182,19 +2188,19 @@
         <v>4</v>
       </c>
       <c r="F25" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H25" s="3">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I25" s="3">
-        <v>2120</v>
+        <v>2578</v>
       </c>
       <c r="J25" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>55</v>
@@ -2206,7 +2212,7 @@
         <v>56</v>
       </c>
       <c r="N25" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>57</v>
@@ -2214,13 +2220,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>1102009</v>
+        <v>1102007</v>
       </c>
       <c r="B26" s="6">
-        <v>1102009</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>19</v>
+        <v>1102007</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="D26" s="18">
         <v>2</v>
@@ -2229,16 +2235,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H26" s="3">
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="I26" s="3">
-        <v>2969</v>
+        <v>2120</v>
       </c>
       <c r="J26" s="3">
         <v>1304011</v>
@@ -2261,13 +2267,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>1102010</v>
+        <v>1102009</v>
       </c>
       <c r="B27" s="6">
-        <v>1102010</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>79</v>
+        <v>1102009</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="18">
         <v>2</v>
@@ -2276,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F27" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H27" s="3">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I27" s="3">
-        <v>2085</v>
+        <v>2969</v>
       </c>
       <c r="J27" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>55</v>
@@ -2300,7 +2306,7 @@
         <v>56</v>
       </c>
       <c r="N27" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>57</v>
@@ -2308,13 +2314,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>1102011</v>
+        <v>1102010</v>
       </c>
       <c r="B28" s="6">
-        <v>1102011</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>20</v>
+        <v>1102010</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="18">
         <v>2</v>
@@ -2323,19 +2329,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="I28" s="3">
-        <v>1813</v>
+        <v>2085</v>
       </c>
       <c r="J28" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>55</v>
@@ -2347,7 +2353,7 @@
         <v>56</v>
       </c>
       <c r="N28" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>57</v>
@@ -2355,13 +2361,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>1102012</v>
+        <v>1102011</v>
       </c>
       <c r="B29" s="6">
-        <v>1102012</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>80</v>
+        <v>1102011</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="18">
         <v>2</v>
@@ -2370,19 +2376,19 @@
         <v>4</v>
       </c>
       <c r="F29" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H29" s="3">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="I29" s="3">
-        <v>1277</v>
+        <v>1813</v>
       </c>
       <c r="J29" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>55</v>
@@ -2394,7 +2400,7 @@
         <v>56</v>
       </c>
       <c r="N29" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>57</v>
@@ -2402,34 +2408,34 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>1102013</v>
+        <v>1102012</v>
       </c>
       <c r="B30" s="6">
-        <v>1102013</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>21</v>
+        <v>1102012</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="18">
         <v>2</v>
       </c>
       <c r="E30" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H30" s="3">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="I30" s="3">
-        <v>1567</v>
+        <v>1277</v>
       </c>
       <c r="J30" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>55</v>
@@ -2441,7 +2447,7 @@
         <v>56</v>
       </c>
       <c r="N30" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>57</v>
@@ -2449,34 +2455,34 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>1102014</v>
+        <v>1102013</v>
       </c>
       <c r="B31" s="6">
-        <v>1102014</v>
+        <v>1102013</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
       </c>
       <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="18">
         <v>3</v>
       </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
       <c r="G31" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H31" s="3">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I31" s="3">
-        <v>2920</v>
+        <v>1567</v>
       </c>
       <c r="J31" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>55</v>
@@ -2488,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="N31" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>57</v>
@@ -2496,34 +2502,34 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>1102015</v>
+        <v>1102014</v>
       </c>
       <c r="B32" s="6">
-        <v>1102015</v>
+        <v>1102014</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D32" s="18">
         <v>2</v>
       </c>
       <c r="E32" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="18">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H32" s="3">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="I32" s="3">
-        <v>2867</v>
+        <v>2920</v>
       </c>
       <c r="J32" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>55</v>
@@ -2535,7 +2541,7 @@
         <v>56</v>
       </c>
       <c r="N32" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>57</v>
@@ -2543,34 +2549,34 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>1102016</v>
+        <v>1102015</v>
       </c>
       <c r="B33" s="6">
-        <v>1102016</v>
+        <v>1102015</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="18">
         <v>2</v>
       </c>
       <c r="E33" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H33" s="3">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I33" s="3">
-        <v>2125</v>
+        <v>2867</v>
       </c>
       <c r="J33" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>55</v>
@@ -2582,7 +2588,7 @@
         <v>56</v>
       </c>
       <c r="N33" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>57</v>
@@ -2590,34 +2596,34 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>1102017</v>
+        <v>1102016</v>
       </c>
       <c r="B34" s="6">
-        <v>1102017</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>83</v>
+        <v>1102016</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="D34" s="18">
         <v>2</v>
       </c>
       <c r="E34" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H34" s="3">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="I34" s="3">
-        <v>1143</v>
+        <v>2125</v>
       </c>
       <c r="J34" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>55</v>
@@ -2629,7 +2635,7 @@
         <v>56</v>
       </c>
       <c r="N34" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>57</v>
@@ -2637,13 +2643,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>1102018</v>
+        <v>1102017</v>
       </c>
       <c r="B35" s="6">
-        <v>1102018</v>
+        <v>1102017</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -2652,19 +2658,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="H35" s="3">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I35" s="3">
-        <v>2578</v>
+        <v>1143</v>
       </c>
       <c r="J35" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>55</v>
@@ -2676,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="N35" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>57</v>
@@ -2684,13 +2690,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>1102019</v>
+        <v>1102018</v>
       </c>
       <c r="B36" s="6">
-        <v>1102019</v>
+        <v>1102018</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="18">
         <v>2</v>
@@ -2699,19 +2705,19 @@
         <v>3</v>
       </c>
       <c r="F36" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H36" s="3">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I36" s="3">
-        <v>2120</v>
+        <v>2578</v>
       </c>
       <c r="J36" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>55</v>
@@ -2723,7 +2729,7 @@
         <v>56</v>
       </c>
       <c r="N36" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>57</v>
@@ -2731,13 +2737,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>1102020</v>
+        <v>1102019</v>
       </c>
       <c r="B37" s="6">
-        <v>1102020</v>
+        <v>1102019</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
@@ -2746,19 +2752,19 @@
         <v>3</v>
       </c>
       <c r="F37" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="I37" s="3">
-        <v>1981</v>
+        <v>2120</v>
       </c>
       <c r="J37" s="3">
-        <v>1304013</v>
+        <v>1304011</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>55</v>
@@ -2770,7 +2776,7 @@
         <v>56</v>
       </c>
       <c r="N37" s="3">
-        <v>1304011</v>
+        <v>1304013</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>57</v>
@@ -2778,56 +2784,144 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
+        <v>1102020</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1102020</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>3</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>40</v>
+      </c>
+      <c r="H38" s="3">
+        <v>109</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>1102021</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B39" s="6">
         <v>1102021</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="18">
-        <v>2</v>
-      </c>
-      <c r="E38" s="18">
-        <v>2</v>
-      </c>
-      <c r="F38" s="18">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="18">
+        <v>2</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
         <v>76</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="3">
         <v>295</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I39" s="3">
         <v>2969</v>
       </c>
-      <c r="J38" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1304012</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G39" s="3"/>
+      <c r="J39" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G40" s="3"/>
+      <c r="A40" s="6">
+        <v>1102050</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1102050</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>40</v>
+      </c>
+      <c r="H40" s="3">
+        <v>109</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1981</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G41" s="3"/>
@@ -2846,6 +2940,9 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G47" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/镇魂街/national_card国战卡牌属性.xlsx
+++ b/Excel/镇魂街/national_card国战卡牌属性.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
     <sheet name="卡牌国战属性" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="191">
   <si>
     <t>sheet名</t>
   </si>
@@ -200,142 +201,544 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Tanlent1_Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>national_card.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>national_card.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>黑尔坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+  </si>
+  <si>
+    <t>柠檬精</t>
+  </si>
+  <si>
+    <t>Tanlent1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋1类型
+1.全局生效
+2.只在战斗内生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋1等级效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanlent1_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:ae&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.2,0.3,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产量=(占领资源点产量+科技数值产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铁产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精石产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵谷产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库资源容量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上限=基础上限+科技增加上限+国战天赋增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集银木</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得银木数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际获得量=基础获得量*(1+科技加成%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集赤铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得赤铁数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集灵谷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得灵谷数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际获得量=基础获得量*(1+科技加成%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集精石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得精石数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集资源速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际采集时间=基础采集时间/(1+科技加成%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得资源数量提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际获得量=基础获得量*(1+科技加成%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际行军时间=基础行军时间/(1+科技加成%+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技研究速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际科研时间=基础科研时间/(1+总提升百分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上限=卡牌基础上限+科技增加+国战天赋增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力恢复速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌总行动力恢复速率=基础速率/(1+总提升百分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际征募时间=基础征募时间/(1+科技征募加成%+其他征募加成%-其他征募减成%+天赋征募加成%)，其他包括地形影响、国战天赋等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌军力值上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上限=城镇基础上限+科技增加+国战天赋增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复速率=基础速率/(1+总提升百分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大队伍数量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上限=基础上限+科技增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的驻守功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启功能 0.不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的采集功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铁产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,7,9,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5级天赋解锁
+所需统御等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanlent2_Type</t>
+  </si>
+  <si>
     <t>Tanlent2_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanlent2_Unlock</t>
+  </si>
+  <si>
+    <t>Tanlent2_Value</t>
+  </si>
+  <si>
+    <t>1-6级天赋解锁
+所需统御等级</t>
+  </si>
+  <si>
+    <t>天赋2等级效果</t>
+  </si>
+  <si>
+    <t>1-5级天赋解锁
+所需统御等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanlent3_Type</t>
   </si>
   <si>
     <t>Tanlent3_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanlent1_Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanlent2_Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tanlent3_Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5,7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,6,8,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5级解锁所需统御等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>national_card.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>national_card.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-  </si>
-  <si>
-    <t>阎巧巧</t>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-  </si>
-  <si>
-    <t>曹玄亮</t>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-  </si>
-  <si>
-    <t>项昆仑</t>
-  </si>
-  <si>
-    <t>刘羽禅</t>
-  </si>
-  <si>
-    <t>红莲缇娜</t>
-  </si>
-  <si>
-    <t>黑尔坎普</t>
-  </si>
-  <si>
-    <t>北落师门</t>
-  </si>
-  <si>
-    <t>南御夫</t>
-  </si>
-  <si>
-    <t>吉拉</t>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>李轩辕</t>
-  </si>
-  <si>
-    <t>项羽</t>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-  </si>
-  <si>
-    <t>张郃</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>西方龙</t>
-  </si>
-  <si>
-    <t>飞廉</t>
-  </si>
-  <si>
-    <t>噬日</t>
-  </si>
-  <si>
-    <t>食火蜥</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-  </si>
-  <si>
-    <t>常服夏铃</t>
-  </si>
-  <si>
-    <t>柠檬精</t>
+  </si>
+  <si>
+    <t>Tanlent3_Value</t>
+  </si>
+  <si>
+    <t>天赋3等级效果</t>
+  </si>
+  <si>
+    <t>天赋3类型
+1.全局生效
+2.只在战斗内生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋2类型
+1.全局生效
+2.只在战斗内生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +768,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +792,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +844,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -474,6 +896,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Grid" xfId="2"/>
@@ -809,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="13" t="s">
@@ -831,7 +1271,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>39</v>
@@ -996,10 +1436,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,16 +1451,21 @@
     <col min="6" max="6" width="12.625" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="16" max="16" width="14.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3"/>
+    <col min="20" max="20" width="18.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1049,25 +1494,41 @@
         <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -1088,8 +1549,10 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1121,22 +1584,40 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1164,27 +1645,44 @@
       <c r="I3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="T3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1101001</v>
       </c>
@@ -1192,7 +1690,7 @@
         <v>1101001</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -1213,25 +1711,43 @@
         <v>2120</v>
       </c>
       <c r="J4" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N4" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1101002</v>
       </c>
@@ -1239,7 +1755,7 @@
         <v>1101002</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -1260,25 +1776,43 @@
         <v>1981</v>
       </c>
       <c r="J5" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N5" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>6</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1101003</v>
       </c>
@@ -1286,7 +1820,7 @@
         <v>1101003</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -1307,25 +1841,43 @@
         <v>2969</v>
       </c>
       <c r="J6" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N6" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>8</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>9</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1101004</v>
       </c>
@@ -1333,7 +1885,7 @@
         <v>1101004</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
@@ -1354,25 +1906,43 @@
         <v>2085</v>
       </c>
       <c r="J7" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N7" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>11</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>12</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1101005</v>
       </c>
@@ -1380,7 +1950,7 @@
         <v>1101005</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -1401,25 +1971,43 @@
         <v>1813</v>
       </c>
       <c r="J8" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N8" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>14</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>15</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1101006</v>
       </c>
@@ -1427,7 +2015,7 @@
         <v>1101006</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -1448,25 +2036,43 @@
         <v>1277</v>
       </c>
       <c r="J9" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N9" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>17</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>18</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1101007</v>
       </c>
@@ -1474,7 +2080,7 @@
         <v>1101007</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -1495,25 +2101,43 @@
         <v>1567</v>
       </c>
       <c r="J10" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N10" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>27</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>28</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>1101008</v>
       </c>
@@ -1521,7 +2145,7 @@
         <v>1101008</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -1542,25 +2166,43 @@
         <v>2920</v>
       </c>
       <c r="J11" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>29</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N11" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1101009</v>
       </c>
@@ -1568,7 +2210,7 @@
         <v>1101009</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
@@ -1589,25 +2231,43 @@
         <v>2867</v>
       </c>
       <c r="J12" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N12" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1101010</v>
       </c>
@@ -1636,25 +2296,43 @@
         <v>2125</v>
       </c>
       <c r="J13" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N13" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>6</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1101011</v>
       </c>
@@ -1683,25 +2361,43 @@
         <v>1143</v>
       </c>
       <c r="J14" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N14" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>9</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1101012</v>
       </c>
@@ -1709,7 +2405,7 @@
         <v>1101012</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
@@ -1730,25 +2426,43 @@
         <v>2578</v>
       </c>
       <c r="J15" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N15" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1101013</v>
       </c>
@@ -1756,7 +2470,7 @@
         <v>1101013</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
@@ -1777,25 +2491,43 @@
         <v>2120</v>
       </c>
       <c r="J16" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N16" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>14</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>15</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1101014</v>
       </c>
@@ -1803,7 +2535,7 @@
         <v>1101014</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="18">
         <v>1</v>
@@ -1824,25 +2556,43 @@
         <v>1981</v>
       </c>
       <c r="J17" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>16</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N17" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>17</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>18</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1101015</v>
       </c>
@@ -1850,7 +2600,7 @@
         <v>1101015</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
@@ -1871,25 +2621,43 @@
         <v>2969</v>
       </c>
       <c r="J18" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>26</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N18" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>27</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>28</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1101041</v>
       </c>
@@ -1897,7 +2665,7 @@
         <v>1101041</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
@@ -1918,25 +2686,43 @@
         <v>2120</v>
       </c>
       <c r="J19" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>29</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N19" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>30</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1102001</v>
       </c>
@@ -1965,25 +2751,43 @@
         <v>1567</v>
       </c>
       <c r="J20" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N20" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1102002</v>
       </c>
@@ -1991,7 +2795,7 @@
         <v>1102002</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" s="18">
         <v>2</v>
@@ -2012,25 +2816,43 @@
         <v>2920</v>
       </c>
       <c r="J21" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N21" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>6</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1102003</v>
       </c>
@@ -2059,25 +2881,43 @@
         <v>2867</v>
       </c>
       <c r="J22" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N22" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>9</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1102004</v>
       </c>
@@ -2085,7 +2925,7 @@
         <v>1102004</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -2106,25 +2946,43 @@
         <v>2125</v>
       </c>
       <c r="J23" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N23" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>11</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>12</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>1102005</v>
       </c>
@@ -2132,7 +2990,7 @@
         <v>1102005</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
@@ -2153,25 +3011,43 @@
         <v>1143</v>
       </c>
       <c r="J24" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N24" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>14</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>15</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1102006</v>
       </c>
@@ -2179,7 +3055,7 @@
         <v>1102006</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
@@ -2200,25 +3076,43 @@
         <v>2578</v>
       </c>
       <c r="J25" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>16</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N25" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>17</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>18</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1102007</v>
       </c>
@@ -2226,7 +3120,7 @@
         <v>1102007</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D26" s="18">
         <v>2</v>
@@ -2247,25 +3141,43 @@
         <v>2120</v>
       </c>
       <c r="J26" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>26</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N26" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>27</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>28</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1102009</v>
       </c>
@@ -2294,25 +3206,43 @@
         <v>2969</v>
       </c>
       <c r="J27" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>29</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N27" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>30</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1102010</v>
       </c>
@@ -2320,7 +3250,7 @@
         <v>1102010</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D28" s="18">
         <v>2</v>
@@ -2341,25 +3271,43 @@
         <v>2085</v>
       </c>
       <c r="J28" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N28" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>3</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>1102011</v>
       </c>
@@ -2388,25 +3336,43 @@
         <v>1813</v>
       </c>
       <c r="J29" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N29" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>6</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1102012</v>
       </c>
@@ -2414,7 +3380,7 @@
         <v>1102012</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D30" s="18">
         <v>2</v>
@@ -2435,25 +3401,43 @@
         <v>1277</v>
       </c>
       <c r="J30" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N30" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>8</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>9</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1102013</v>
       </c>
@@ -2482,25 +3466,43 @@
         <v>1567</v>
       </c>
       <c r="J31" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N31" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>11</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>12</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>1102014</v>
       </c>
@@ -2529,25 +3531,43 @@
         <v>2920</v>
       </c>
       <c r="J32" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>13</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N32" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>14</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3">
+        <v>15</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1102015</v>
       </c>
@@ -2555,7 +3575,7 @@
         <v>1102015</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D33" s="18">
         <v>2</v>
@@ -2576,25 +3596,43 @@
         <v>2867</v>
       </c>
       <c r="J33" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>16</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N33" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>17</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
+      <c r="S33" s="3">
+        <v>18</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1102016</v>
       </c>
@@ -2602,7 +3640,7 @@
         <v>1102016</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D34" s="18">
         <v>2</v>
@@ -2623,25 +3661,43 @@
         <v>2125</v>
       </c>
       <c r="J34" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>26</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N34" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>27</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
+      <c r="S34" s="3">
+        <v>28</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>1102017</v>
       </c>
@@ -2649,7 +3705,7 @@
         <v>1102017</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -2670,25 +3726,43 @@
         <v>1143</v>
       </c>
       <c r="J35" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>29</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N35" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>30</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>1102018</v>
       </c>
@@ -2696,7 +3770,7 @@
         <v>1102018</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D36" s="18">
         <v>2</v>
@@ -2717,25 +3791,43 @@
         <v>2578</v>
       </c>
       <c r="J36" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N36" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>1102019</v>
       </c>
@@ -2743,7 +3835,7 @@
         <v>1102019</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
@@ -2764,25 +3856,43 @@
         <v>2120</v>
       </c>
       <c r="J37" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N37" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>5</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R37" s="3">
+        <v>1</v>
+      </c>
+      <c r="S37" s="3">
+        <v>6</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>1102020</v>
       </c>
@@ -2790,7 +3900,7 @@
         <v>1102020</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D38" s="18">
         <v>2</v>
@@ -2811,25 +3921,43 @@
         <v>1981</v>
       </c>
       <c r="J38" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>7</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N38" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>8</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
+      <c r="S38" s="3">
+        <v>9</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>1102021</v>
       </c>
@@ -2837,7 +3965,7 @@
         <v>1102021</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D39" s="18">
         <v>2</v>
@@ -2858,25 +3986,43 @@
         <v>2969</v>
       </c>
       <c r="J39" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N39" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>11</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1</v>
+      </c>
+      <c r="S39" s="3">
+        <v>12</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>1102050</v>
       </c>
@@ -2884,7 +4030,7 @@
         <v>1102050</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D40" s="18">
         <v>2</v>
@@ -2905,44 +4051,609 @@
         <v>1981</v>
       </c>
       <c r="J40" s="3">
-        <v>1304013</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1304012</v>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>13</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N40" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>14</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1</v>
+      </c>
+      <c r="S40" s="3">
+        <v>15</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G47" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
